--- a/techniqo/data_new_ticker/DALBHARAT.xlsx
+++ b/techniqo/data_new_ticker/DALBHARAT.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1349"/>
+  <dimension ref="A1:G1351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47601,6 +47601,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>755</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>784.4</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>745.45</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>768.05</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>226051</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>778</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>779.95</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>760</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>767.6</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>52105</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/DALBHARAT.xlsx
+++ b/techniqo/data_new_ticker/DALBHARAT.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1351"/>
+  <dimension ref="A1:G1353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47651,6 +47651,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1352" t="n">
+        <v>771.45</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>797</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>770.05</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>792.75</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>189407</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1353" t="n">
+        <v>797</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>807.8</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>761.5</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>768.95</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>340095</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
